--- a/storage/app/Colombo_status_upload.xlsx
+++ b/storage/app/Colombo_status_upload.xlsx
@@ -15,78 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Handover Date</t>
+    <t>Handle By</t>
   </si>
   <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>Possition of Work</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Job Order No.</t>
   </si>
   <si>
-    <t>country</t>
+    <t>Country</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Deadline</t>
   </si>
   <si>
-    <t>Sub agent</t>
+    <t>Req No</t>
   </si>
   <si>
-    <t>RE Coordinator</t>
+    <t>Total CV</t>
   </si>
   <si>
-    <t>Mobi - Handover</t>
+    <t>Balance Req No</t>
   </si>
   <si>
-    <t>Jeevan Application</t>
+    <t>Remark</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>PP Size Pic</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>PPT Copy</t>
-  </si>
-  <si>
-    <t>License Copy</t>
-  </si>
-  <si>
-    <t>Police Reporter</t>
-  </si>
-  <si>
-    <t>Working Video</t>
-  </si>
-  <si>
-    <t>Myself Video</t>
-  </si>
-  <si>
-    <t>Edu Cert</t>
-  </si>
-  <si>
-    <t>Other Cert</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>colombo4</t>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -428,88 +386,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -530,7 +458,9 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -556,7 +486,9 @@
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
